--- a/biology/Histoire de la zoologie et de la botanique/Charles_Henry_Tilson_Marshall/Charles_Henry_Tilson_Marshall.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Henry_Tilson_Marshall/Charles_Henry_Tilson_Marshall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Henry Tilson Marshall (1841 - 20 janvier 1927[1]) est un ornithologue britannique.
-Il est en poste en Inde aux côtés de son frère, George Marshall (1843-1934), militaire et zoologiste amateur. Il participe à The Game Birds of India, Burmah and Ceylon aux côtés de Allan Octavian Hume (1829-1912) en trois volumes dont la parution s'étale entre 1878 et 1880[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Henry Tilson Marshall (1841 - 20 janvier 1927) est un ornithologue britannique.
+Il est en poste en Inde aux côtés de son frère, George Marshall (1843-1934), militaire et zoologiste amateur. Il participe à The Game Birds of India, Burmah and Ceylon aux côtés de Allan Octavian Hume (1829-1912) en trois volumes dont la parution s'étale entre 1878 et 1880.
 </t>
         </is>
       </c>
